--- a/templates/excel/links_template.xlsx
+++ b/templates/excel/links_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="9CDD"/>
+  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="A02A"/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -50,7 +50,7 @@
     <t>02:その他</t>
   </si>
   <si>
-    <t>0f92b960b5c30cae9190fa500cb84e0b706f82609da69a143c9540f292a8b2d7ce8b1605b246a8dd31f4a6d91d7b0cc6fcd4a759a8ecbd3480306dea29a26b2d</t>
+    <t>1b264f278aef7f064260e448911e4b16f07e1c5efaa8183245389c5ab7d67bd5ca44385f6d4799105243a1243c43b56a2a78666a86d0dfd40421f007d6e3a4ea</t>
   </si>
 </sst>
 </file>

--- a/templates/excel/links_template.xlsx
+++ b/templates/excel/links_template.xlsx
@@ -434,8 +434,8 @@
     <col min="3" max="3" width="14" customWidth="true" style="0"/>
     <col min="4" max="4" width="12" customWidth="true" style="0"/>
     <col min="5" max="5" width="10" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10" customWidth="true" style="0"/>
-    <col min="7" max="7" width="10" customWidth="true" style="0"/>
+    <col min="6" max="6" width="19.38" customWidth="true" style="0"/>
+    <col min="7" max="7" width="19.38" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
